--- a/Team-Data/2014-15/3-14-2014-15.xlsx
+++ b/Team-Data/2014-15/3-14-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,10 +811,10 @@
         <v>6.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" t="n">
         <v>2</v>
@@ -762,7 +829,7 @@
         <v>12</v>
       </c>
       <c r="AJ2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK2" t="n">
         <v>3</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -813,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB2" t="n">
         <v>9</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" t="n">
         <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,7 +933,7 @@
         <v>38.8</v>
       </c>
       <c r="J3" t="n">
-        <v>88.2</v>
+        <v>88.3</v>
       </c>
       <c r="K3" t="n">
         <v>0.44</v>
@@ -899,10 +966,10 @@
         <v>43.9</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V3" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
@@ -917,25 +984,25 @@
         <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>19</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -956,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
@@ -968,10 +1035,10 @@
         <v>18</v>
       </c>
       <c r="AR3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS3" t="n">
         <v>12</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>12</v>
@@ -980,16 +1047,16 @@
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -1030,52 +1097,52 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
         <v>38</v>
       </c>
       <c r="G4" t="n">
-        <v>0.406</v>
+        <v>0.397</v>
       </c>
       <c r="H4" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I4" t="n">
         <v>36.6</v>
       </c>
       <c r="J4" t="n">
-        <v>82.09999999999999</v>
+        <v>82</v>
       </c>
       <c r="K4" t="n">
-        <v>0.446</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
         <v>6.6</v>
       </c>
       <c r="M4" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N4" t="n">
-        <v>0.325</v>
+        <v>0.327</v>
       </c>
       <c r="O4" t="n">
         <v>16.4</v>
       </c>
       <c r="P4" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.741</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S4" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T4" t="n">
         <v>42.2</v>
@@ -1087,28 +1154,28 @@
         <v>14.4</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1120,13 +1187,13 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1138,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="AN4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1153,10 +1220,10 @@
         <v>23</v>
       </c>
       <c r="AS4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1174,10 +1241,10 @@
         <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BB4" t="n">
         <v>24</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE5" t="n">
         <v>18</v>
       </c>
       <c r="AF5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>18</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1311,7 +1378,7 @@
         <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL5" t="n">
         <v>27</v>
@@ -1329,7 +1396,7 @@
         <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>25</v>
@@ -1353,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -1490,7 +1557,7 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
         <v>21</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1514,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -1532,10 +1599,10 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -1657,22 +1724,22 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>10</v>
@@ -1690,16 +1757,16 @@
         <v>5</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT7" t="n">
         <v>17</v>
@@ -1708,16 +1775,16 @@
         <v>13</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
       </c>
       <c r="AY7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ7" t="n">
         <v>5</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" t="n">
         <v>42</v>
       </c>
       <c r="F8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.627</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1797,19 +1864,19 @@
         <v>21.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
         <v>10.5</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="T8" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>12.7</v>
@@ -1830,25 +1897,25 @@
         <v>21.6</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1872,19 +1939,19 @@
         <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT8" t="n">
         <v>23</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>21</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
@@ -1896,7 +1963,7 @@
         <v>9</v>
       </c>
       <c r="AX8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AF9" t="n">
         <v>23</v>
@@ -2030,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2048,13 +2115,13 @@
         <v>13</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2063,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" t="n">
         <v>6</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>23</v>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G10" t="n">
-        <v>0.348</v>
+        <v>0.354</v>
       </c>
       <c r="H10" t="n">
         <v>48.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J10" t="n">
         <v>86.2</v>
       </c>
       <c r="K10" t="n">
-        <v>0.426</v>
+        <v>0.427</v>
       </c>
       <c r="L10" t="n">
         <v>8.300000000000001</v>
@@ -2158,16 +2225,16 @@
         <v>16.2</v>
       </c>
       <c r="P10" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="R10" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="S10" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T10" t="n">
         <v>45.3</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AC10" t="n">
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,25 +2279,25 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>20</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM10" t="n">
         <v>11</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2260,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2269,7 +2336,7 @@
         <v>8</v>
       </c>
       <c r="BA10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E11" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>0.797</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,43 +2389,43 @@
         <v>41.4</v>
       </c>
       <c r="J11" t="n">
-        <v>86.90000000000001</v>
+        <v>86.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.477</v>
       </c>
       <c r="L11" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="M11" t="n">
-        <v>27.2</v>
+        <v>27.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.395</v>
+        <v>0.391</v>
       </c>
       <c r="O11" t="n">
         <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.77</v>
+        <v>0.768</v>
       </c>
       <c r="R11" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
         <v>34.4</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
         <v>9.4</v>
@@ -2367,22 +2434,22 @@
         <v>6.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.2</v>
+        <v>9.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2394,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AI11" t="n">
         <v>1</v>
@@ -2415,13 +2482,13 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP11" t="n">
         <v>25</v>
       </c>
-      <c r="AP11" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR11" t="n">
         <v>22</v>
@@ -2430,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="AT11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU11" t="n">
         <v>1</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.656</v>
+        <v>0.662</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.40000000000001</v>
+        <v>84.2</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
       </c>
       <c r="L12" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="M12" t="n">
         <v>33.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.4</v>
+        <v>17.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.719</v>
+        <v>0.717</v>
       </c>
       <c r="R12" t="n">
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U12" t="n">
         <v>22</v>
@@ -2552,22 +2619,22 @@
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB12" t="n">
         <v>103</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>5</v>
@@ -2576,7 +2643,7 @@
         <v>5</v>
       </c>
       <c r="AH12" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2594,22 +2661,22 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AS12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT12" t="n">
         <v>14</v>
@@ -2621,16 +2688,16 @@
         <v>28</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AZ12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="n">
-        <v>0.462</v>
+        <v>0.469</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J13" t="n">
         <v>83.2</v>
@@ -2692,10 +2759,10 @@
         <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M13" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N13" t="n">
         <v>0.341</v>
@@ -2704,10 +2771,10 @@
         <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.765</v>
+        <v>0.764</v>
       </c>
       <c r="R13" t="n">
         <v>10.5</v>
@@ -2722,10 +2789,10 @@
         <v>21.5</v>
       </c>
       <c r="V13" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W13" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="X13" t="n">
         <v>4.5</v>
@@ -2734,19 +2801,19 @@
         <v>4.9</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.5</v>
+        <v>96.7</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
         <v>17</v>
@@ -2758,13 +2825,13 @@
         <v>17</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>23</v>
@@ -2773,7 +2840,7 @@
         <v>18</v>
       </c>
       <c r="AM13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN13" t="n">
         <v>19</v>
@@ -2782,10 +2849,10 @@
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
         <v>20</v>
@@ -2806,7 +2873,7 @@
         <v>28</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AY13" t="n">
         <v>17</v>
@@ -2815,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="BA13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB13" t="n">
         <v>23</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -2928,10 +2995,10 @@
         <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2973,10 +3040,10 @@
         <v>27</v>
       </c>
       <c r="AS14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G15" t="n">
-        <v>0.27</v>
+        <v>0.266</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J15" t="n">
-        <v>86.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
         <v>6.5</v>
       </c>
       <c r="M15" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="N15" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O15" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P15" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T15" t="n">
-        <v>44.1</v>
+        <v>44</v>
       </c>
       <c r="U15" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V15" t="n">
         <v>12.9</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.3</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6</v>
+        <v>-6.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,10 +3192,10 @@
         <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3149,16 +3216,16 @@
         <v>12</v>
       </c>
       <c r="AQ15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS15" t="n">
         <v>13</v>
       </c>
       <c r="AT15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU15" t="n">
         <v>20</v>
@@ -3170,16 +3237,16 @@
         <v>20</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB15" t="n">
         <v>17</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
         <v>20</v>
       </c>
       <c r="G16" t="n">
-        <v>0.697</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3238,61 +3305,61 @@
         <v>0.458</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>15.2</v>
       </c>
       <c r="N16" t="n">
-        <v>0.334</v>
+        <v>0.331</v>
       </c>
       <c r="O16" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R16" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S16" t="n">
-        <v>32.2</v>
+        <v>32.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U16" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W16" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB16" t="n">
         <v>99</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>13</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK16" t="n">
         <v>8</v>
@@ -3322,7 +3389,7 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3352,13 +3419,13 @@
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
         <v>23</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-2.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE17" t="n">
         <v>18</v>
@@ -3498,7 +3565,7 @@
         <v>11</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>19</v>
@@ -3510,10 +3577,10 @@
         <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AV17" t="n">
         <v>21</v>
@@ -3540,7 +3607,7 @@
         <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
         <v>8</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G18" t="n">
-        <v>0.515</v>
+        <v>0.523</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L18" t="n">
         <v>6.9</v>
@@ -3608,28 +3675,28 @@
         <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0.372</v>
       </c>
       <c r="O18" t="n">
         <v>16.1</v>
       </c>
       <c r="P18" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S18" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T18" t="n">
         <v>41.5</v>
       </c>
       <c r="U18" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V18" t="n">
         <v>16.8</v>
@@ -3650,13 +3717,13 @@
         <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.59999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
@@ -3671,10 +3738,10 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>6</v>
@@ -3689,13 +3756,13 @@
         <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AR18" t="n">
         <v>24</v>
@@ -3713,22 +3780,22 @@
         <v>29</v>
       </c>
       <c r="AW18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY18" t="n">
         <v>13</v>
       </c>
-      <c r="AY18" t="n">
-        <v>12</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC18" t="n">
         <v>14</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-7.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3868,7 +3935,7 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO19" t="n">
         <v>3</v>
@@ -3889,7 +3956,7 @@
         <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV19" t="n">
         <v>22</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -3942,28 +4009,28 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
         <v>29</v>
       </c>
       <c r="G20" t="n">
-        <v>0.547</v>
+        <v>0.554</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>37.9</v>
+        <v>38</v>
       </c>
       <c r="J20" t="n">
-        <v>82.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L20" t="n">
         <v>7</v>
@@ -3972,37 +4039,37 @@
         <v>19.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.364</v>
+        <v>0.362</v>
       </c>
       <c r="O20" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P20" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.772</v>
+        <v>0.766</v>
       </c>
       <c r="R20" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
         <v>31.8</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U20" t="n">
         <v>21.8</v>
       </c>
       <c r="V20" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y20" t="n">
         <v>5.8</v>
@@ -4011,37 +4078,37 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
         <v>99.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF20" t="n">
         <v>13</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
         <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL20" t="n">
         <v>19</v>
@@ -4050,25 +4117,25 @@
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
         <v>15</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU20" t="n">
         <v>14</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -4124,58 +4191,58 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="n">
         <v>13</v>
       </c>
       <c r="F21" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.2</v>
       </c>
       <c r="K21" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L21" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.349</v>
       </c>
       <c r="O21" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="P21" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.766</v>
+        <v>0.769</v>
       </c>
       <c r="R21" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S21" t="n">
         <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U21" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="V21" t="n">
         <v>14.3</v>
@@ -4190,7 +4257,7 @@
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.2</v>
@@ -4199,10 +4266,10 @@
         <v>92.3</v>
       </c>
       <c r="AC21" t="n">
-        <v>-9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,19 +4281,19 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>28</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>21</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS21" t="n">
         <v>30</v>
@@ -4256,22 +4323,22 @@
         <v>18</v>
       </c>
       <c r="AV21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ21" t="n">
         <v>27</v>
       </c>
       <c r="BA21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4396,7 +4463,7 @@
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>8</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO22" t="n">
         <v>6</v>
@@ -4423,7 +4490,7 @@
         <v>11</v>
       </c>
       <c r="AQ22" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4444,13 +4511,13 @@
         <v>22</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY22" t="n">
         <v>10</v>
       </c>
       <c r="AZ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA22" t="n">
         <v>18</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" t="n">
         <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" t="n">
-        <v>0.318</v>
+        <v>0.313</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,37 +4573,37 @@
         <v>37.3</v>
       </c>
       <c r="J23" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N23" t="n">
         <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="P23" t="n">
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R23" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="S23" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T23" t="n">
-        <v>41</v>
+        <v>41.2</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
@@ -4548,10 +4615,10 @@
         <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
         <v>21.1</v>
@@ -4560,13 +4627,13 @@
         <v>18.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,10 +4648,10 @@
         <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
         <v>13</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
@@ -4626,13 +4693,13 @@
         <v>14</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="n">
         <v>15</v>
       </c>
       <c r="F24" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" t="n">
-        <v>0.227</v>
+        <v>0.231</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.4</v>
+        <v>33.3</v>
       </c>
       <c r="J24" t="n">
-        <v>81.7</v>
+        <v>81.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.408</v>
+        <v>0.409</v>
       </c>
       <c r="L24" t="n">
         <v>8</v>
       </c>
       <c r="M24" t="n">
-        <v>25.5</v>
+        <v>25.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.316</v>
+        <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P24" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
         <v>0.676</v>
@@ -4715,16 +4782,16 @@
         <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
         <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4739,7 +4806,7 @@
         <v>21.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB24" t="n">
         <v>91</v>
@@ -4748,13 +4815,13 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD24" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
       </c>
       <c r="AF24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG24" t="n">
         <v>28</v>
@@ -4775,10 +4842,10 @@
         <v>13</v>
       </c>
       <c r="AM24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO24" t="n">
         <v>22</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4808,13 +4875,13 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -4963,13 +5030,13 @@
         <v>13</v>
       </c>
       <c r="AO25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP25" t="n">
         <v>20</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR25" t="n">
         <v>14</v>
@@ -4996,13 +5063,13 @@
         <v>5</v>
       </c>
       <c r="AZ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA25" t="n">
         <v>12</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC25" t="n">
         <v>17</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
         <v>4</v>
@@ -5142,7 +5209,7 @@
         <v>2</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
         <v>26</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,7 +5248,7 @@
         <v>3</v>
       </c>
       <c r="BA26" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E27" t="n">
         <v>22</v>
       </c>
       <c r="F27" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G27" t="n">
-        <v>0.338</v>
+        <v>0.344</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5261,10 +5328,10 @@
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T27" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U27" t="n">
         <v>19.8</v>
@@ -5288,13 +5355,13 @@
         <v>24.3</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.9</v>
+        <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5339,10 +5406,10 @@
         <v>13</v>
       </c>
       <c r="AS27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E28" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F28" t="n">
         <v>24</v>
       </c>
       <c r="G28" t="n">
-        <v>0.619</v>
+        <v>0.625</v>
       </c>
       <c r="H28" t="n">
         <v>48.8</v>
@@ -5416,52 +5483,52 @@
         <v>38.4</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.362</v>
+        <v>0.364</v>
       </c>
       <c r="O28" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P28" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="R28" t="n">
         <v>9.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U28" t="n">
         <v>24</v>
       </c>
       <c r="V28" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W28" t="n">
         <v>7.8</v>
       </c>
       <c r="X28" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>19.5</v>
@@ -5476,10 +5543,10 @@
         <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="AE28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -5497,22 +5564,22 @@
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>9</v>
@@ -5521,10 +5588,10 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
@@ -5670,7 +5737,7 @@
         <v>10</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI29" t="n">
         <v>10</v>
@@ -5685,7 +5752,7 @@
         <v>9</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>15</v>
@@ -5721,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>21</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" t="n">
         <v>36</v>
       </c>
       <c r="G30" t="n">
-        <v>0.446</v>
+        <v>0.438</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
@@ -5780,7 +5847,7 @@
         <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>79</v>
+        <v>79.2</v>
       </c>
       <c r="K30" t="n">
         <v>0.45</v>
@@ -5789,10 +5856,10 @@
         <v>7.2</v>
       </c>
       <c r="M30" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.343</v>
       </c>
       <c r="O30" t="n">
         <v>16.8</v>
@@ -5801,7 +5868,7 @@
         <v>23</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.729</v>
+        <v>0.73</v>
       </c>
       <c r="R30" t="n">
         <v>11.9</v>
@@ -5834,22 +5901,22 @@
         <v>19.3</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.09999999999999</v>
+        <v>95.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.4</v>
+        <v>-0.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF30" t="n">
         <v>19</v>
       </c>
       <c r="AG30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5867,13 +5934,13 @@
         <v>17</v>
       </c>
       <c r="AM30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP30" t="n">
         <v>15</v>
@@ -5885,7 +5952,7 @@
         <v>7</v>
       </c>
       <c r="AS30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT30" t="n">
         <v>13</v>
@@ -5900,10 +5967,10 @@
         <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
@@ -5944,37 +6011,37 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E31" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="n">
         <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.576</v>
+        <v>0.569</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J31" t="n">
         <v>82.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.467</v>
+        <v>0.466</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M31" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
@@ -5983,10 +6050,10 @@
         <v>21.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
       <c r="R31" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S31" t="n">
         <v>33.6</v>
@@ -6010,19 +6077,19 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
@@ -6034,13 +6101,13 @@
         <v>12</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
         <v>4</v>
@@ -6052,7 +6119,7 @@
         <v>27</v>
       </c>
       <c r="AN31" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6067,10 +6134,10 @@
         <v>18</v>
       </c>
       <c r="AS31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
         <v>5</v>
@@ -6079,16 +6146,16 @@
         <v>24</v>
       </c>
       <c r="AW31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX31" t="n">
         <v>17</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-14-2014-15</t>
+          <t>2015-03-14</t>
         </is>
       </c>
     </row>
